--- a/Data/EC/NIT-8301156718.xlsx
+++ b/Data/EC/NIT-8301156718.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6639E97-A87B-464B-B95F-8CAFC90B1BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF5556BE-DD97-4EFB-B882-149E62E36396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00D34AD6-3735-463F-BCB9-211A8D7C592E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{ECCC0085-8655-47E0-8537-C76F8B3420A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -59,67 +59,82 @@
     <t>NIT</t>
   </si>
   <si>
-    <t>RENT INDUSTRIAL LTDA</t>
+    <t>RENT INDUSTRIAL SAS</t>
   </si>
   <si>
     <t>CC</t>
   </si>
   <si>
+    <t>73215869</t>
+  </si>
+  <si>
+    <t>MARCOS ANTONIO SALGADO TORRES</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1047458473</t>
+  </si>
+  <si>
+    <t>DARWIN GARCIA GUERRERO</t>
+  </si>
+  <si>
+    <t>9097751</t>
+  </si>
+  <si>
+    <t>BORIS ESCALANTE THORRENS</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
     <t>1143344676</t>
   </si>
   <si>
     <t>DAYRO MIGUEL CARDALES JULIO</t>
   </si>
   <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
     <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>9097751</t>
-  </si>
-  <si>
-    <t>BORIS ESCALANTE THORRENS</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
   </si>
   <si>
     <t>15668088</t>
@@ -542,7 +557,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61AFB671-07FF-DCFD-3260-6A4D7693E97B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C4FB6CE-759E-9C75-6CD1-DEE4F6F4CD35}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -893,8 +908,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06C5938-84B4-42A0-9525-F29A790E25FE}">
-  <dimension ref="B2:J37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B4C6FF-3A84-4F6B-8DFA-7BCEFEF4A295}">
+  <dimension ref="B2:J39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -905,7 +920,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -918,7 +933,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -963,7 +978,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -995,12 +1010,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>628064</v>
+        <v>639106</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1011,17 +1026,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C13" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F13" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1048,13 +1063,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1071,10 +1086,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>37333</v>
+        <v>5521</v>
       </c>
       <c r="G16" s="18">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1085,19 +1100,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>40000</v>
+        <v>5521</v>
       </c>
       <c r="G17" s="18">
-        <v>1000000</v>
+        <v>1100000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1108,19 +1123,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F18" s="18">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="G18" s="18">
-        <v>1000000</v>
+        <v>1456000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1131,19 +1146,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F19" s="18">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="G19" s="18">
-        <v>1000000</v>
+        <v>1456000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1154,19 +1169,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F20" s="18">
-        <v>40000</v>
+        <v>31200</v>
       </c>
       <c r="G20" s="18">
-        <v>1000000</v>
+        <v>1456000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1177,13 +1192,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F21" s="18">
         <v>40000</v>
@@ -1200,13 +1215,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F22" s="18">
         <v>40000</v>
@@ -1223,13 +1238,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F23" s="18">
         <v>40000</v>
@@ -1246,13 +1261,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F24" s="18">
         <v>40000</v>
@@ -1269,13 +1284,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F25" s="18">
         <v>40000</v>
@@ -1292,13 +1307,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F26" s="18">
         <v>40000</v>
@@ -1315,13 +1330,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F27" s="18">
         <v>40000</v>
@@ -1338,19 +1353,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F28" s="18">
-        <v>31200</v>
+        <v>40000</v>
       </c>
       <c r="G28" s="18">
-        <v>1456000</v>
+        <v>1000000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1361,19 +1376,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F29" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G29" s="18">
-        <v>1456000</v>
+        <v>1000000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1384,75 +1399,121 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F30" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G30" s="18">
-        <v>1456000</v>
+        <v>1000000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" s="24">
+      <c r="B31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G31" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B32" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="18">
+        <v>37333</v>
+      </c>
+      <c r="G32" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="20"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="24">
         <v>15531</v>
       </c>
-      <c r="G31" s="24">
+      <c r="G33" s="24">
         <v>1456000</v>
       </c>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="26"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="32"/>
-      <c r="H36" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B37" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="32"/>
-      <c r="H37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="26"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B38" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="32"/>
+      <c r="H38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B39" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="32"/>
+      <c r="H39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H38:J38"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-8301156718.xlsx
+++ b/Data/EC/NIT-8301156718.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8783047E-8274-4E08-A762-10354AF75AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FBF92D3-B7F8-4195-A85E-49C15D32C9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2498C07A-7F8D-448B-AA55-4BFF8A8CC6CD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EF839D2F-DCA1-48AA-A721-117E59C1A045}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -227,9 +227,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -242,7 +240,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -436,29 +436,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -477,19 +477,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -542,7 +548,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFEC5966-4A93-503A-1BA3-E115AECFC509}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B025F156-5ABF-ADC3-1765-AE1B349E6FAC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -893,7 +899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3825DDEB-3AB5-4320-BCA6-2777258367DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D0F07E-44A6-496D-B235-FBDC80D18A4B}">
   <dimension ref="B2:J37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -916,49 +922,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -966,7 +972,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -982,7 +988,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>8301156718</v>
       </c>
@@ -998,7 +1004,7 @@
         <v>33</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>628064</v>
       </c>
@@ -1067,18 +1073,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>37333</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>1000000</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1090,18 +1096,18 @@
       <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>40000</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>1000000</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1113,18 +1119,18 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>40000</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>1000000</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1136,18 +1142,18 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>40000</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>1000000</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1159,18 +1165,18 @@
       <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>40000</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>1000000</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1182,18 +1188,18 @@
       <c r="D21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>40000</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>1000000</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1205,18 +1211,18 @@
       <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>40000</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>1000000</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1228,18 +1234,18 @@
       <c r="D23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>40000</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>1000000</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1251,18 +1257,18 @@
       <c r="D24" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>40000</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="19">
         <v>1000000</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1274,18 +1280,18 @@
       <c r="D25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>40000</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="19">
         <v>1000000</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1297,18 +1303,18 @@
       <c r="D26" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>40000</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="19">
         <v>1000000</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1320,18 +1326,18 @@
       <c r="D27" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="19">
         <v>40000</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="19">
         <v>1000000</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1343,18 +1349,18 @@
       <c r="D28" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>31200</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="19">
         <v>1456000</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1366,18 +1372,18 @@
       <c r="D29" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="19">
         <v>52000</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="19">
         <v>1456000</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1389,47 +1395,47 @@
       <c r="D30" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="19">
         <v>52000</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="19">
         <v>1456000</v>
       </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="22" t="s">
+      <c r="B31" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="24">
+      <c r="F31" s="26">
         <v>15531</v>
       </c>
-      <c r="G31" s="24">
+      <c r="G31" s="26">
         <v>1456000</v>
       </c>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="26"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="28"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="32"/>
+      <c r="C36" s="34"/>
       <c r="H36" s="1" t="s">
         <v>40</v>
       </c>
@@ -1437,10 +1443,10 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="32"/>
+      <c r="C37" s="34"/>
       <c r="H37" s="1" t="s">
         <v>41</v>
       </c>
